--- a/medicine/Enfance/L'Or_du_prédateur/L'Or_du_prédateur.xlsx
+++ b/medicine/Enfance/L'Or_du_prédateur/L'Or_du_prédateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Or_du_pr%C3%A9dateur</t>
+          <t>L'Or_du_prédateur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Or du prédateur (titre original : Predator's Gold) est un roman de science-fiction écrit par Philip Reeve, publié en 2003[1] puis traduit en français et publié en 2007[2]. Il est le deuxième volume de la série de livres Tom et Hester (Mortal Engines Quartet).
+L'Or du prédateur (titre original : Predator's Gold) est un roman de science-fiction écrit par Philip Reeve, publié en 2003 puis traduit en français et publié en 2007. Il est le deuxième volume de la série de livres Tom et Hester (Mortal Engines Quartet).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Or_du_pr%C3%A9dateur</t>
+          <t>L'Or_du_prédateur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
